--- a/150 important questions for DSC++.xlsx
+++ b/150 important questions for DSC++.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MU\2024-25\DSC++\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\d_drive\sem_3\dscpp\150_imp_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201ECA7D-F365-4028-8A26-BA403552D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7036FB36-1CAD-439A-9FF7-3DA038361310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B28499A1-4AD5-4A5A-AD6B-3AC0F995336D}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
   <si>
     <t>Array</t>
   </si>
@@ -502,6 +505,12 @@
   </si>
   <si>
     <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>explanation remaining</t>
   </si>
 </sst>
 </file>
@@ -897,19 +906,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE79ACC8-75E1-4C07-A572-4B654CD29192}">
-  <dimension ref="A2:C151"/>
+  <dimension ref="A2:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="107.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -919,8 +929,11 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -930,8 +943,11 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -941,8 +957,11 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -952,8 +971,11 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -963,8 +985,11 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -974,8 +999,11 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -985,8 +1013,11 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -996,8 +1027,11 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1007,8 +1041,11 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1018,8 +1055,11 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1030,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1041,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1052,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1063,7 +1103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1074,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1085,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1096,7 +1136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1107,7 +1147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1118,7 +1158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1129,7 +1169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1139,8 +1179,11 @@
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1151,7 +1194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1161,8 +1204,11 @@
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1172,8 +1218,11 @@
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1195,7 +1247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1206,7 +1258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1217,7 +1269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1228,7 +1280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1239,7 +1291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
